--- a/xlslist/F1_Xgboost.xlsx
+++ b/xlslist/F1_Xgboost.xlsx
@@ -1,17 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>N. Classes</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NC_gen+NC_pr</t>
+  </si>
+  <si>
+    <t>SL+GC+NC(genome)</t>
+  </si>
+  <si>
+    <t>SL+GC+NC(proteome)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +93,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -425,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +409,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -449,148 +425,191 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N. Classes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Samples</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SQ+GC+NC</t>
-        </is>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phylum</t>
-        </is>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>215</v>
+        <v>660</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7190528100775194</v>
+        <v>0.6269812491311699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7627062297429072</v>
+        <v>0.7650982731282894</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9677570380950355</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7754927377354999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9604358595993518</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>168</v>
+        <v>493</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6698179271708683</v>
+        <v>0.5396831463447713</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7139078887368902</v>
+        <v>0.7224747458850951</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9400914419167753</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.693746281208827</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9462785898344999</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>242</v>
+        <v>743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3062434701609959</v>
+        <v>0.3342133511654781</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4223715145106898</v>
+        <v>0.4288377590938304</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6835669025091102</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3631386378796743</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6675976906862151</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3541328737052421</v>
+        <v>0.3738699630283016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3987039512774807</v>
+        <v>0.5356092341653097</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8527862744253765</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4662937123965282</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8529405710441784</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Genus</t>
-        </is>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>213</v>
+        <v>543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1788387000596303</v>
+        <v>0.3528802966557257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2061607507139943</v>
+        <v>0.4995698454840277</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9164029543087191</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.416582073585992</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9172200094570151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/xlslist/F1_Xgboost.xlsx
+++ b/xlslist/F1_Xgboost.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +409,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -434,8 +434,11 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -464,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -478,22 +481,25 @@
         <v>660</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6269812491311699</v>
+        <v>0.6422762488378444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7650982731282894</v>
+        <v>0.7592434738368422</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9677570380950355</v>
+        <v>0.7512697025727029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7754927377354999</v>
+        <v>0.9562995693712001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9604358595993518</v>
+        <v>0.9606374937356758</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9591339735637363</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -507,22 +513,25 @@
         <v>493</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5396831463447713</v>
+        <v>0.5641166287940037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7224747458850951</v>
+        <v>0.7067203585025023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9400914419167753</v>
+        <v>0.6964537641577606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.693746281208827</v>
+        <v>0.9451823546881468</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9462785898344999</v>
+        <v>0.9471612920030504</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9481911627870443</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -536,22 +545,25 @@
         <v>743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3342133511654781</v>
+        <v>0.3307204436357077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4288377590938304</v>
+        <v>0.432783673130987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6835669025091102</v>
+        <v>0.3670866409380765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3631386378796743</v>
+        <v>0.683352271985583</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6675976906862151</v>
+        <v>0.6845876244994668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6682234216999524</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -565,22 +577,25 @@
         <v>636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3738699630283016</v>
+        <v>0.3658359288155295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5356092341653097</v>
+        <v>0.5238323792101567</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8527862744253765</v>
+        <v>0.4544159848709955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4662937123965282</v>
+        <v>0.8516830987559882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8529405710441784</v>
+        <v>0.8530601670637019</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8495801154964431</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -594,19 +609,22 @@
         <v>543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3528802966557257</v>
+        <v>0.3262781025224333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4995698454840277</v>
+        <v>0.4801323453186883</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9164029543087191</v>
+        <v>0.4293958368657118</v>
       </c>
       <c r="H7" t="n">
-        <v>0.416582073585992</v>
+        <v>0.9065692010125441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9172200094570151</v>
+        <v>0.9047803169031409</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9039027077099593</v>
       </c>
     </row>
   </sheetData>

--- a/xlslist/F1_Xgboost.xlsx
+++ b/xlslist/F1_Xgboost.xlsx
@@ -31,10 +31,10 @@
     <t>NC_gen+NC_pr</t>
   </si>
   <si>
-    <t>SL+GC+NC(genome)</t>
-  </si>
-  <si>
-    <t>SL+GC+NC(proteome)</t>
+    <t>SL+NC(proteome)</t>
+  </si>
+  <si>
+    <t>All(genome)</t>
   </si>
   <si>
     <t>All</t>
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +409,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -434,11 +434,8 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -467,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -490,16 +487,13 @@
         <v>0.7512697025727029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9562995693712001</v>
+        <v>0.9606374937356758</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9606374937356758</v>
-      </c>
-      <c r="J3" t="n">
         <v>0.9591339735637363</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -507,31 +501,28 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>493</v>
+        <v>615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5641166287940037</v>
+        <v>0.4932763654510939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7067203585025023</v>
+        <v>0.6220251065747447</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6964537641577606</v>
+        <v>0.5950589585524358</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9451823546881468</v>
+        <v>0.9314170681019823</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9471612920030504</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9481911627870443</v>
+        <v>0.9328309402922241</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -539,31 +530,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>743</v>
+        <v>634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3307204436357077</v>
+        <v>0.3963478061677222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.432783673130987</v>
+        <v>0.5541371649140671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3670866409380765</v>
+        <v>0.4850185269103665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.683352271985583</v>
+        <v>0.892964535321557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6845876244994668</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6682234216999524</v>
+        <v>0.894826507562688</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -571,31 +559,28 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3658359288155295</v>
+        <v>0.3872144151754842</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5238323792101567</v>
+        <v>0.5476692566548875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4544159848709955</v>
+        <v>0.4665404269410117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8516830987559882</v>
+        <v>0.8888752910111752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8530601670637019</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8495801154964431</v>
+        <v>0.8881877753499207</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -618,12 +603,9 @@
         <v>0.4293958368657118</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9065692010125441</v>
+        <v>0.9047803169031409</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9047803169031409</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.9039027077099593</v>
       </c>
     </row>
